--- a/Client/Assets/Editor/Excels/RoleInfo.xlsx
+++ b/Client/Assets/Editor/Excels/RoleInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041A3D2-180F-4344-B537-2F84C706A40B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A6095C-781D-449F-804C-18D5EA8057B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{F525D064-6667-4D77-BE86-E477A3C2AA29}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>程敏敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arts/ImagesNew/LeftChar01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Arts/ImagesNew/RightChar101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +76,34 @@
   </si>
   <si>
     <t>苏佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/LeftChar102</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/LeftChar103</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/LeftChar104</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/LeftChar105</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/RightChar102</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/RightChar103</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/RightChar104</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/RightChar105</t>
+  </si>
+  <si>
+    <t>未修改！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,10 +145,36 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -135,17 +185,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,104 +521,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3417BF31-4CED-4F0B-BFA8-663D9553784C}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="26.75" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>103</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>102</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>106</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Editor/Excels/RoleInfo.xlsx
+++ b/Client/Assets/Editor/Excels/RoleInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A6095C-781D-449F-804C-18D5EA8057B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9C90D8-63C3-435C-81CF-C33D8EA41D73}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{F525D064-6667-4D77-BE86-E477A3C2AA29}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>程敏敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,28 +82,27 @@
     <t>Arts/ImagesNew/LeftChar102</t>
   </si>
   <si>
+    <t>Arts/ImagesNew/RightChar102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Arts/ImagesNew/LeftChar103</t>
-  </si>
-  <si>
-    <t>Arts/ImagesNew/LeftChar104</t>
-  </si>
-  <si>
-    <t>Arts/ImagesNew/LeftChar105</t>
-  </si>
-  <si>
-    <t>Arts/ImagesNew/RightChar102</t>
-  </si>
-  <si>
-    <t>Arts/ImagesNew/RightChar103</t>
-  </si>
-  <si>
-    <t>Arts/ImagesNew/RightChar104</t>
-  </si>
-  <si>
-    <t>Arts/ImagesNew/RightChar105</t>
-  </si>
-  <si>
-    <t>未修改！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dp_chengmm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dp_yuanyc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dp_zhangzj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -168,24 +167,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,9 +190,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,11 +506,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3417BF31-4CED-4F0B-BFA8-663D9553784C}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -536,7 +519,7 @@
     <col min="5" max="5" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -552,11 +535,8 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>101</v>
       </c>
@@ -567,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>102</v>
       </c>
@@ -584,13 +564,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>103</v>
       </c>
@@ -601,13 +581,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>104</v>
       </c>
@@ -615,16 +595,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>105</v>
       </c>
@@ -632,16 +612,16 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>106</v>
       </c>
@@ -655,7 +635,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Editor/Excels/RoleInfo.xlsx
+++ b/Client/Assets/Editor/Excels/RoleInfo.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[Work]\Forgetful_Cupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9C90D8-63C3-435C-81CF-C33D8EA41D73}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{F525D064-6667-4D77-BE86-E477A3C2AA29}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>程敏敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人物性格等描述图片地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人物名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arts/ImagesNew/RightChar101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Arts/ImagesNew/LeftChar101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,13 +94,29 @@
   </si>
   <si>
     <t>Arts/ImagesNew/dp_zhangzj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物对话框图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_101R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dp_unknown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -173,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +198,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,10 +515,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3417BF31-4CED-4F0B-BFA8-663D9553784C}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -521,13 +533,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -537,105 +549,116 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>101</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>103</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
+        <v>105</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>106</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Editor/Excels/RoleInfo.xlsx
+++ b/Client/Assets/Editor/Excels/RoleInfo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[Work]\Forgetful_Cupid\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Editor\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDA77C1-DD92-4D3E-AF15-640F6015F55C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>程敏敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,13 +111,17 @@
   </si>
   <si>
     <t>Arts/ImagesNew/dp_unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/dialo_101L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -515,11 +520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,6 +560,9 @@
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
